--- a/team_specific_matrix/UCF_A.xlsx
+++ b/team_specific_matrix/UCF_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2023809523809524</v>
+        <v>0.2079207920792079</v>
       </c>
       <c r="C2">
-        <v>0.5198412698412699</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03174603174603174</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1507936507936508</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09523809523809523</v>
+        <v>0.0891089108910891</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02898550724637681</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05797101449275362</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7536231884057971</v>
+        <v>0.7345679012345679</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1594202898550725</v>
+        <v>0.191358024691358</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.12</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.52</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.36</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1555555555555556</v>
+        <v>0.1329479768786127</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007407407407407408</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04444444444444445</v>
+        <v>0.05202312138728324</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2296296296296296</v>
+        <v>0.2312138728323699</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.05185185185185185</v>
+        <v>0.04046242774566474</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1185185185185185</v>
+        <v>0.1213872832369942</v>
       </c>
       <c r="R6">
-        <v>0.05925925925925926</v>
+        <v>0.05780346820809248</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.3526011560693642</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.143939393939394</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0303030303030303</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="E7">
-        <v>0.007575757575757576</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="F7">
-        <v>0.07575757575757576</v>
+        <v>0.05945945945945946</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1818181818181818</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1363636363636364</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="R7">
-        <v>0.05303030303030303</v>
+        <v>0.04864864864864865</v>
       </c>
       <c r="S7">
-        <v>0.3712121212121212</v>
+        <v>0.3945945945945946</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09302325581395349</v>
+        <v>0.08231707317073171</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007751937984496124</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06589147286821706</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1124031007751938</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02325581395348837</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1279069767441861</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="R8">
-        <v>0.09689922480620156</v>
+        <v>0.09451219512195122</v>
       </c>
       <c r="S8">
-        <v>0.4728682170542636</v>
+        <v>0.4817073170731707</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07913669064748201</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02877697841726619</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04316546762589928</v>
+        <v>0.03550295857988166</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.158273381294964</v>
+        <v>0.1893491124260355</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1870503597122302</v>
+        <v>0.1715976331360947</v>
       </c>
       <c r="R9">
-        <v>0.05755395683453238</v>
+        <v>0.05917159763313609</v>
       </c>
       <c r="S9">
-        <v>0.4460431654676259</v>
+        <v>0.4497041420118343</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1393875395987328</v>
+        <v>0.1331114808652246</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01478352692713833</v>
+        <v>0.01580698835274542</v>
       </c>
       <c r="E10">
-        <v>0.002111932418162619</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="F10">
-        <v>0.06335797254487856</v>
+        <v>0.06655574043261231</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1277719112988384</v>
+        <v>0.1231281198003328</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0116156282998944</v>
+        <v>0.01331114808652246</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1942977824709609</v>
+        <v>0.2038269550748752</v>
       </c>
       <c r="R10">
-        <v>0.08025343189017951</v>
+        <v>0.07986688851913477</v>
       </c>
       <c r="S10">
-        <v>0.3664202745512143</v>
+        <v>0.3627287853577371</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1304347826086956</v>
+        <v>0.1347517730496454</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1014492753623188</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="K11">
-        <v>0.1690821256038647</v>
+        <v>0.1808510638297872</v>
       </c>
       <c r="L11">
-        <v>0.5652173913043478</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03381642512077294</v>
+        <v>0.02482269503546099</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7132352941176471</v>
+        <v>0.7292817679558011</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1691176470588235</v>
+        <v>0.1712707182320442</v>
       </c>
       <c r="K12">
-        <v>0.03676470588235294</v>
+        <v>0.02762430939226519</v>
       </c>
       <c r="L12">
-        <v>0.04411764705882353</v>
+        <v>0.04419889502762431</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03676470588235294</v>
+        <v>0.02762430939226519</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8095238095238095</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04761904761904762</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04516129032258064</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1741935483870968</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="I15">
-        <v>0.07096774193548387</v>
+        <v>0.078125</v>
       </c>
       <c r="J15">
-        <v>0.4258064516129032</v>
+        <v>0.4270833333333333</v>
       </c>
       <c r="K15">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04516129032258064</v>
+        <v>0.046875</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2064516129032258</v>
+        <v>0.2135416666666667</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02702702702702703</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1418918918918919</v>
+        <v>0.1629213483146068</v>
       </c>
       <c r="I16">
-        <v>0.08783783783783784</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="J16">
-        <v>0.4527027027027027</v>
+        <v>0.4662921348314606</v>
       </c>
       <c r="K16">
-        <v>0.1216216216216216</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02702702702702703</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1418918918918919</v>
+        <v>0.1235955056179775</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007326007326007326</v>
+        <v>0.005509641873278237</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1172161172161172</v>
+        <v>0.1129476584022039</v>
       </c>
       <c r="I17">
-        <v>0.1172161172161172</v>
+        <v>0.1101928374655647</v>
       </c>
       <c r="J17">
-        <v>0.4652014652014652</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="K17">
-        <v>0.09157509157509157</v>
+        <v>0.09641873278236915</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01098901098901099</v>
+        <v>0.01377410468319559</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05494505494505494</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1355311355311355</v>
+        <v>0.1267217630853995</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1475409836065574</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="I18">
-        <v>0.07377049180327869</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="J18">
-        <v>0.4672131147540984</v>
+        <v>0.4675324675324675</v>
       </c>
       <c r="K18">
-        <v>0.1065573770491803</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02459016393442623</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="N18">
-        <v>0.00819672131147541</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="O18">
-        <v>0.07377049180327869</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09836065573770492</v>
+        <v>0.1103896103896104</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.006857142857142857</v>
+        <v>0.008021390374331552</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1817142857142857</v>
+        <v>0.1827094474153298</v>
       </c>
       <c r="I19">
-        <v>0.07657142857142857</v>
+        <v>0.07397504456327986</v>
       </c>
       <c r="J19">
-        <v>0.4022857142857143</v>
+        <v>0.3912655971479501</v>
       </c>
       <c r="K19">
-        <v>0.1131428571428571</v>
+        <v>0.1229946524064171</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.016</v>
+        <v>0.01693404634581105</v>
       </c>
       <c r="N19">
-        <v>0.003428571428571428</v>
+        <v>0.0035650623885918</v>
       </c>
       <c r="O19">
-        <v>0.08799999999999999</v>
+        <v>0.08645276292335116</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.112</v>
+        <v>0.1140819964349376</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UCF_A.xlsx
+++ b/team_specific_matrix/UCF_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2079207920792079</v>
+        <v>0.2011661807580175</v>
       </c>
       <c r="C2">
-        <v>0.5148514851485149</v>
+        <v>0.5276967930029155</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0297029702970297</v>
+        <v>0.02915451895043732</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1584158415841584</v>
+        <v>0.1545189504373178</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0891089108910891</v>
+        <v>0.08746355685131195</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02469135802469136</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04938271604938271</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7345679012345679</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.191358024691358</v>
+        <v>0.1914893617021277</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08333333333333333</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5833333333333334</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3414634146341464</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1329479768786127</v>
+        <v>0.1231527093596059</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0115606936416185</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05202312138728324</v>
+        <v>0.04926108374384237</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2312138728323699</v>
+        <v>0.2463054187192118</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04046242774566474</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1213872832369942</v>
+        <v>0.1231527093596059</v>
       </c>
       <c r="R6">
-        <v>0.05780346820809248</v>
+        <v>0.0541871921182266</v>
       </c>
       <c r="S6">
-        <v>0.3526011560693642</v>
+        <v>0.3596059113300493</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1351351351351351</v>
+        <v>0.1382488479262673</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03243243243243243</v>
+        <v>0.02764976958525346</v>
       </c>
       <c r="E7">
-        <v>0.005405405405405406</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="F7">
-        <v>0.05945945945945946</v>
+        <v>0.05529953917050692</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1621621621621622</v>
+        <v>0.1658986175115207</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005405405405405406</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1567567567567568</v>
+        <v>0.1474654377880184</v>
       </c>
       <c r="R7">
-        <v>0.04864864864864865</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="S7">
-        <v>0.3945945945945946</v>
+        <v>0.3778801843317972</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08231707317073171</v>
+        <v>0.08446866485013624</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01219512195121951</v>
+        <v>0.01362397820163488</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06097560975609756</v>
+        <v>0.06539509536784741</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1158536585365854</v>
+        <v>0.1198910081743869</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01829268292682927</v>
+        <v>0.0217983651226158</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1341463414634146</v>
+        <v>0.1416893732970027</v>
       </c>
       <c r="R8">
-        <v>0.09451219512195122</v>
+        <v>0.08446866485013624</v>
       </c>
       <c r="S8">
-        <v>0.4817073170731707</v>
+        <v>0.4686648501362398</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0650887573964497</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02958579881656805</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03550295857988166</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1893491124260355</v>
+        <v>0.1837837837837838</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1715976331360947</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="R9">
-        <v>0.05917159763313609</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="S9">
-        <v>0.4497041420118343</v>
+        <v>0.4540540540540541</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1331114808652246</v>
+        <v>0.1328878990348923</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01580698835274542</v>
+        <v>0.01707498144023756</v>
       </c>
       <c r="E10">
-        <v>0.001663893510815308</v>
+        <v>0.001484780994803266</v>
       </c>
       <c r="F10">
-        <v>0.06655574043261231</v>
+        <v>0.066815144766147</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1231281198003328</v>
+        <v>0.1210096510764662</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01331114808652246</v>
+        <v>0.0178173719376392</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2038269550748752</v>
+        <v>0.2048997772828508</v>
       </c>
       <c r="R10">
-        <v>0.07986688851913477</v>
+        <v>0.07720861172976985</v>
       </c>
       <c r="S10">
-        <v>0.3627287853577371</v>
+        <v>0.3608017817371937</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1347517730496454</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09574468085106383</v>
+        <v>0.09567901234567901</v>
       </c>
       <c r="K11">
-        <v>0.1808510638297872</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L11">
-        <v>0.5638297872340425</v>
+        <v>0.5401234567901234</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02482269503546099</v>
+        <v>0.02160493827160494</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7292817679558011</v>
+        <v>0.7437185929648241</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1712707182320442</v>
+        <v>0.1658291457286432</v>
       </c>
       <c r="K12">
-        <v>0.02762430939226519</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="L12">
-        <v>0.04419889502762431</v>
+        <v>0.04020100502512563</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02762430939226519</v>
+        <v>0.02512562814070352</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8214285714285714</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1428571428571428</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03571428571428571</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04166666666666666</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1614583333333333</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="I15">
-        <v>0.078125</v>
+        <v>0.07207207207207207</v>
       </c>
       <c r="J15">
-        <v>0.4270833333333333</v>
+        <v>0.4099099099099099</v>
       </c>
       <c r="K15">
-        <v>0.03125</v>
+        <v>0.03603603603603604</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.046875</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2135416666666667</v>
+        <v>0.2432432432432433</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02247191011235955</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1629213483146068</v>
+        <v>0.1809045226130653</v>
       </c>
       <c r="I16">
-        <v>0.07865168539325842</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="J16">
-        <v>0.4662921348314606</v>
+        <v>0.4723618090452261</v>
       </c>
       <c r="K16">
-        <v>0.1235955056179775</v>
+        <v>0.1105527638190955</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02247191011235955</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1235955056179775</v>
+        <v>0.1155778894472362</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.005509641873278237</v>
+        <v>0.007263922518159807</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1129476584022039</v>
+        <v>0.1162227602905569</v>
       </c>
       <c r="I17">
-        <v>0.1101928374655647</v>
+        <v>0.1089588377723971</v>
       </c>
       <c r="J17">
-        <v>0.4848484848484849</v>
+        <v>0.4769975786924939</v>
       </c>
       <c r="K17">
-        <v>0.09641873278236915</v>
+        <v>0.09927360774818401</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01377410468319559</v>
+        <v>0.01452784503631961</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04958677685950413</v>
+        <v>0.05326876513317191</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1267217630853995</v>
+        <v>0.1234866828087167</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006493506493506494</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1363636363636364</v>
+        <v>0.125748502994012</v>
       </c>
       <c r="I18">
-        <v>0.06493506493506493</v>
+        <v>0.0658682634730539</v>
       </c>
       <c r="J18">
-        <v>0.4675324675324675</v>
+        <v>0.4610778443113773</v>
       </c>
       <c r="K18">
-        <v>0.1103896103896104</v>
+        <v>0.1137724550898204</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01948051948051948</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="N18">
-        <v>0.006493506493506494</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="O18">
-        <v>0.07792207792207792</v>
+        <v>0.08982035928143713</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1103896103896104</v>
+        <v>0.1137724550898204</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008021390374331552</v>
+        <v>0.01195219123505976</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1827094474153298</v>
+        <v>0.1816733067729084</v>
       </c>
       <c r="I19">
-        <v>0.07397504456327986</v>
+        <v>0.07250996015936255</v>
       </c>
       <c r="J19">
-        <v>0.3912655971479501</v>
+        <v>0.3920318725099601</v>
       </c>
       <c r="K19">
-        <v>0.1229946524064171</v>
+        <v>0.1258964143426295</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01693404634581105</v>
+        <v>0.01832669322709163</v>
       </c>
       <c r="N19">
-        <v>0.0035650623885918</v>
+        <v>0.00398406374501992</v>
       </c>
       <c r="O19">
-        <v>0.08645276292335116</v>
+        <v>0.08207171314741035</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1140819964349376</v>
+        <v>0.1115537848605578</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UCF_A.xlsx
+++ b/team_specific_matrix/UCF_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2011661807580175</v>
+        <v>0.2039106145251397</v>
       </c>
       <c r="C2">
-        <v>0.5276967930029155</v>
+        <v>0.5223463687150838</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02915451895043732</v>
+        <v>0.02793296089385475</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1545189504373178</v>
+        <v>0.1592178770949721</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08746355685131195</v>
+        <v>0.08659217877094973</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="C3">
-        <v>0.02659574468085106</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05851063829787234</v>
+        <v>0.05670103092783505</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.723404255319149</v>
+        <v>0.7268041237113402</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1914893617021277</v>
+        <v>0.1855670103092784</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07317073170731707</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5853658536585366</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3414634146341464</v>
+        <v>0.3488372093023256</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1231527093596059</v>
+        <v>0.1238095238095238</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009852216748768473</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04926108374384237</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2463054187192118</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1231527093596059</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="R6">
-        <v>0.0541871921182266</v>
+        <v>0.05238095238095238</v>
       </c>
       <c r="S6">
-        <v>0.3596059113300493</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1382488479262673</v>
+        <v>0.1357466063348416</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02764976958525346</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="E7">
-        <v>0.004608294930875576</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="F7">
-        <v>0.05529953917050692</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1658986175115207</v>
+        <v>0.16289592760181</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02304147465437788</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1474654377880184</v>
+        <v>0.1447963800904978</v>
       </c>
       <c r="R7">
-        <v>0.05990783410138249</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="S7">
-        <v>0.3778801843317972</v>
+        <v>0.3755656108597285</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08446866485013624</v>
+        <v>0.08355091383812011</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01362397820163488</v>
+        <v>0.01305483028720627</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06539509536784741</v>
+        <v>0.06266318537859007</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1198910081743869</v>
+        <v>0.1201044386422977</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0217983651226158</v>
+        <v>0.02088772845953003</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1416893732970027</v>
+        <v>0.1462140992167102</v>
       </c>
       <c r="R8">
-        <v>0.08446866485013624</v>
+        <v>0.08093994778067885</v>
       </c>
       <c r="S8">
-        <v>0.4686648501362398</v>
+        <v>0.4725848563968668</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07027027027027027</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02702702702702703</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03243243243243243</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1837837837837838</v>
+        <v>0.1968911917098446</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1783783783783784</v>
+        <v>0.1761658031088083</v>
       </c>
       <c r="R9">
-        <v>0.05405405405405406</v>
+        <v>0.05181347150259067</v>
       </c>
       <c r="S9">
-        <v>0.4540540540540541</v>
+        <v>0.4352331606217616</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1328878990348923</v>
+        <v>0.1340057636887608</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01707498144023756</v>
+        <v>0.01657060518731988</v>
       </c>
       <c r="E10">
-        <v>0.001484780994803266</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="F10">
-        <v>0.066815144766147</v>
+        <v>0.06772334293948126</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1210096510764662</v>
+        <v>0.1195965417867435</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0178173719376392</v>
+        <v>0.01945244956772334</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2048997772828508</v>
+        <v>0.2046109510086455</v>
       </c>
       <c r="R10">
-        <v>0.07720861172976985</v>
+        <v>0.07564841498559077</v>
       </c>
       <c r="S10">
-        <v>0.3608017817371937</v>
+        <v>0.3609510086455331</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1481481481481481</v>
+        <v>0.1483679525222552</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09567901234567901</v>
+        <v>0.1008902077151335</v>
       </c>
       <c r="K11">
-        <v>0.1944444444444444</v>
+        <v>0.198813056379822</v>
       </c>
       <c r="L11">
-        <v>0.5401234567901234</v>
+        <v>0.5311572700296736</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02160493827160494</v>
+        <v>0.02077151335311573</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7437185929648241</v>
+        <v>0.7438423645320197</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1658291457286432</v>
+        <v>0.167487684729064</v>
       </c>
       <c r="K12">
-        <v>0.02512562814070352</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="L12">
-        <v>0.04020100502512563</v>
+        <v>0.03940886699507389</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02512562814070352</v>
+        <v>0.02463054187192118</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8484848484848485</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1212121212121212</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0303030303030303</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04504504504504504</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1486486486486487</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="I15">
-        <v>0.07207207207207207</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="J15">
-        <v>0.4099099099099099</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="K15">
-        <v>0.03603603603603604</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04504504504504504</v>
+        <v>0.04741379310344827</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2432432432432433</v>
+        <v>0.2629310344827586</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02010050251256281</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1809045226130653</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I16">
-        <v>0.07537688442211055</v>
+        <v>0.07655502392344497</v>
       </c>
       <c r="J16">
-        <v>0.4723618090452261</v>
+        <v>0.4688995215311005</v>
       </c>
       <c r="K16">
-        <v>0.1105527638190955</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02512562814070352</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1155778894472362</v>
+        <v>0.1244019138755981</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007263922518159807</v>
+        <v>0.007009345794392523</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1162227602905569</v>
+        <v>0.1144859813084112</v>
       </c>
       <c r="I17">
-        <v>0.1089588377723971</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="J17">
-        <v>0.4769975786924939</v>
+        <v>0.4742990654205608</v>
       </c>
       <c r="K17">
-        <v>0.09927360774818401</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01452784503631961</v>
+        <v>0.01635514018691589</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05326876513317191</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1234866828087167</v>
+        <v>0.1308411214953271</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005988023952095809</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.125748502994012</v>
+        <v>0.1352941176470588</v>
       </c>
       <c r="I18">
-        <v>0.0658682634730539</v>
+        <v>0.06470588235294118</v>
       </c>
       <c r="J18">
-        <v>0.4610778443113773</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="K18">
-        <v>0.1137724550898204</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01796407185628742</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="N18">
-        <v>0.005988023952095809</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="O18">
-        <v>0.08982035928143713</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1137724550898204</v>
+        <v>0.1117647058823529</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01195219123505976</v>
+        <v>0.01227935533384497</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1816733067729084</v>
+        <v>0.182655410590944</v>
       </c>
       <c r="I19">
-        <v>0.07250996015936255</v>
+        <v>0.07444359171143515</v>
       </c>
       <c r="J19">
-        <v>0.3920318725099601</v>
+        <v>0.3898695318495779</v>
       </c>
       <c r="K19">
-        <v>0.1258964143426295</v>
+        <v>0.1266308518802763</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01832669322709163</v>
+        <v>0.01765157329240215</v>
       </c>
       <c r="N19">
-        <v>0.00398406374501992</v>
+        <v>0.003837298541826554</v>
       </c>
       <c r="O19">
-        <v>0.08207171314741035</v>
+        <v>0.08288564850345356</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1115537848605578</v>
+        <v>0.1097467382962394</v>
       </c>
     </row>
   </sheetData>
